--- a/data/2019-10-25/Plate Set up SynBio Paper.xlsx
+++ b/data/2019-10-25/Plate Set up SynBio Paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/University_of_Minnesota/Wackett_Lab/github/synbio-data-analysis/data/2019-10-25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAFAB31-775E-A44E-B7AA-92FE296CB97E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD25F15-BCD5-FC41-83CF-F38886C9BEAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="460" windowWidth="19380" windowHeight="12700" xr2:uid="{47940248-D67A-4CDA-B1F4-2F5F65802DE7}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>Pet28_2</t>
   </si>
   <si>
-    <t>Nothing_1</t>
-  </si>
-  <si>
     <t>Nothing_2</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>Nothing_7</t>
+  </si>
+  <si>
+    <t>Pet28_3</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
   <dimension ref="B3:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -817,7 +817,7 @@
         <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
         <v>78</v>
@@ -858,7 +858,7 @@
         <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
         <v>78</v>
@@ -899,7 +899,7 @@
         <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N9" t="s">
         <v>78</v>
@@ -940,7 +940,7 @@
         <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
         <v>78</v>
@@ -981,7 +981,7 @@
         <v>74</v>
       </c>
       <c r="M11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
         <v>78</v>
@@ -1022,7 +1022,7 @@
         <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" t="s">
         <v>78</v>
@@ -1063,7 +1063,7 @@
         <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" t="s">
         <v>78</v>
